--- a/data/trans_camb/P12B1_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 28,26</t>
+          <t>-4,06; 1,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 18,97</t>
+          <t>-3,85; 1,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 19,58</t>
+          <t>-4,05; 1,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 13,27</t>
+          <t>-0,21; 6,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 20,51</t>
+          <t>-1,08; 5,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 16,55</t>
+          <t>-2,48; 2,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 14,49</t>
+          <t>-3,0; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 14,92</t>
+          <t>-3,02; 2,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 13,07</t>
+          <t>-2,24; 4,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 3,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 1,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 1,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 1,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 4,31</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 3,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>-14,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-8,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-15,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-7,98%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>41,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,29%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 69,85</t>
+          <t>-57,29; 59,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,1; 42,53</t>
+          <t>-52,5; 59,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 52,12</t>
+          <t>-60,32; 51,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 24,58</t>
+          <t>-10,54; 214,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 38,71</t>
+          <t>-17,35; 120,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 30,32</t>
+          <t>-33,89; 55,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 28,34</t>
+          <t>-41,38; 47,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 28,45</t>
+          <t>-40,71; 58,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 26,82</t>
+          <t>-34,33; 99,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 66,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,75; 40,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-34,7; 33,18</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-40,06; 39,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 110,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,25; 64,68</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-19,02</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,37</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-7,92</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-5,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 7,42</t>
+          <t>-5,72; 1,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 12,68</t>
+          <t>-5,51; 2,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 34,6</t>
+          <t>-5,07; 2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 14,43</t>
+          <t>-3,75; 2,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 10,71</t>
+          <t>-7,66; 0,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 20,67</t>
+          <t>-5,91; 1,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 4,22</t>
+          <t>-3,84; 4,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 5,7</t>
+          <t>-3,97; 6,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 22,71</t>
+          <t>-12,06; -1,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; -3,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 0,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 2,25</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 3,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; -0,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; -2,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,39%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,04%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>-13,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>-21,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>-50,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>-70,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-76,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,93%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-54,72%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-66,22%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 16,71</t>
+          <t>-73,77; 49,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 24,46</t>
+          <t>-68,83; 73,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 69,7</t>
+          <t>-66,0; 90,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 23,32</t>
+          <t>-70,04; 85,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 17,19</t>
+          <t>-82,66; 29,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 32,96</t>
+          <t>-55,34; 24,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 6,93</t>
+          <t>-40,34; 83,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 9,26</t>
+          <t>-44,62; 120,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 37,57</t>
+          <t>-94,14; -15,51</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-95,11; -34,43</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-53,7; 9,01</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-41,32; 50,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-39,72; 71,3</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-78,92; -7,51</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-84,07; -28,41</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-21,06</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-2,85</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-12,58</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,7</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-18,4</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-8,86</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 10,2</t>
+          <t>-6,24; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 27,99</t>
+          <t>-7,86; 6,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-8,82; 5,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-33,42; -3,55</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,89; -5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-9,65; 5,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 8,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 2,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-48,73; -1,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-22,26; 7,95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 5,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 5,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,92; 1,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-24,39%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-33,67%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-12,58%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-55,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-19,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-9,46%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-2,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-46,25%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,43; 11,68</t>
+          <t>-52,11; 164,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 42,06</t>
+          <t>-66,3; 131,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-78,62; 107,36</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-33,42; -3,55</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,89; -5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-58,08; 78,69</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-48,98; 100,43</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-91,37; 61,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-51,33; -1,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,93; 9,3</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-41,71; 67,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,93; 67,9</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-76,03; 19,77</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 9,94</t>
+          <t>-2,86; 1,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 10,7</t>
+          <t>-2,94; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 12,13</t>
+          <t>-3,28; 0,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 6,0</t>
+          <t>-0,13; 4,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 7,52</t>
+          <t>-1,76; 3,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 6,21</t>
+          <t>-2,68; 1,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 3,87</t>
+          <t>-2,36; 2,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 4,38</t>
+          <t>-3,05; 2,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 4,0</t>
+          <t>-4,0; 1,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 1,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 1,28</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 1,18</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 2,66</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 1,38</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-18,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-7,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-13,83%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-19,77%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-5,2%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-6,54%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 18,23</t>
+          <t>-42,8; 33,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 18,9</t>
+          <t>-42,4; 32,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 22,04</t>
+          <t>-48,22; 27,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 9,33</t>
+          <t>-4,65; 133,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 11,49</t>
+          <t>-26,46; 79,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 9,13</t>
+          <t>-31,77; 25,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 6,23</t>
+          <t>-27,76; 35,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 6,89</t>
+          <t>-36,87; 39,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 6,56</t>
+          <t>-45,86; 28,41</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-49,71; 19,47</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; 16,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-26,15; 23,38</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 22,6</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-18,56; 55,35</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-32,18; 22,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
